--- a/Confidence_Files/Dispersion_Morph_95%_Confidence.xlsx
+++ b/Confidence_Files/Dispersion_Morph_95%_Confidence.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonysemeraro/Documents/Research/Masters/Data/Data_Processing/Confidence_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09EFA12-C927-3741-8544-C588462D51A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9403EE39-3150-D749-A969-DB05214095D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17560" xr2:uid="{F582D0B3-7D29-414F-A802-404B8CDD3DF4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17700" xr2:uid="{F582D0B3-7D29-414F-A802-404B8CDD3DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Dispersion 95% Confidence Bounds</t>
   </si>
@@ -62,6 +63,15 @@
   <si>
     <t>Meduna Right</t>
   </si>
+  <si>
+    <t>Anastomosing</t>
+  </si>
+  <si>
+    <t>Yukon</t>
+  </si>
+  <si>
+    <t>Kasai</t>
+  </si>
 </sst>
 </file>
 
@@ -79,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,13 +98,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -111,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,6 +139,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -146,16 +165,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -170,7 +189,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4953000" y="469900"/>
+          <a:off x="9067800" y="546100"/>
           <a:ext cx="3111500" cy="4546600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -519,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87236F43-B2BE-B840-8522-EFC02FBD0ACB}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,12 +551,12 @@
     <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -546,8 +565,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -560,8 +583,14 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,8 +603,14 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.26900000000000002</v>
       </c>
@@ -588,8 +623,14 @@
       <c r="D6" s="2">
         <v>0.92726204850164284</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>0.44036218900000001</v>
+      </c>
+      <c r="F6">
+        <v>0.87297309099999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.29099999999999998</v>
       </c>
@@ -602,8 +643,14 @@
       <c r="D7" s="2">
         <v>0.84617693838269337</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>0.48223731299999995</v>
+      </c>
+      <c r="F7">
+        <v>0.80254503300000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.28699999999999998</v>
       </c>
@@ -616,8 +663,14 @@
       <c r="D8" s="2">
         <v>0.81961689909683588</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>0.49981570599999992</v>
+      </c>
+      <c r="F8">
+        <v>0.77396637999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.27800000000000002</v>
       </c>
@@ -630,8 +683,14 @@
       <c r="D9" s="2">
         <v>0.81370645798732577</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>0.50441507200000002</v>
+      </c>
+      <c r="F9">
+        <v>0.75933897500000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.28999999999999998</v>
       </c>
@@ -644,8 +703,14 @@
       <c r="D10" s="2">
         <v>0.80011747120141974</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>0.50633204800000009</v>
+      </c>
+      <c r="F10">
+        <v>0.74709879999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.28999999999999998</v>
       </c>
@@ -658,8 +723,14 @@
       <c r="D11" s="2">
         <v>0.79752689615250172</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>0.51135194500000003</v>
+      </c>
+      <c r="F11">
+        <v>0.73629939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0.28399999999999997</v>
       </c>
@@ -672,8 +743,14 @@
       <c r="D12" s="2">
         <v>0.79749598723348847</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0.51077097100000002</v>
+      </c>
+      <c r="F12">
+        <v>0.732101946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.29399999999999998</v>
       </c>
@@ -686,8 +763,14 @@
       <c r="D13" s="2">
         <v>0.79150273164462648</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>0.51439910799999999</v>
+      </c>
+      <c r="F13">
+        <v>0.731115395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.29099999999999998</v>
       </c>
@@ -700,8 +783,14 @@
       <c r="D14" s="2">
         <v>0.79116563195445266</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>0.51689267700000008</v>
+      </c>
+      <c r="F14">
+        <v>0.72957533699999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.28799999999999998</v>
       </c>
@@ -714,8 +803,14 @@
       <c r="D15" s="2">
         <v>0.78571044277957702</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>0.51804305500000003</v>
+      </c>
+      <c r="F15">
+        <v>0.72392093000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.29199999999999998</v>
       </c>
@@ -728,8 +823,14 @@
       <c r="D16" s="2">
         <v>0.7861049503305334</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>0.52230350600000008</v>
+      </c>
+      <c r="F16">
+        <v>0.72669069799999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0.29199999999999998</v>
       </c>
@@ -742,8 +843,14 @@
       <c r="D17" s="2">
         <v>0.78723381759810196</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>0.51999230100000005</v>
+      </c>
+      <c r="F17">
+        <v>0.72385914299999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0.28699999999999998</v>
       </c>
@@ -756,8 +863,14 @@
       <c r="D18" s="2">
         <v>0.78317495008740667</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>0.52365062500000004</v>
+      </c>
+      <c r="F18">
+        <v>0.72528642999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.29399999999999998</v>
       </c>
@@ -770,8 +883,14 @@
       <c r="D19" s="2">
         <v>0.78192794349140704</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>0.52067868800000006</v>
+      </c>
+      <c r="F19">
+        <v>0.72108159699999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.29299999999999998</v>
       </c>
@@ -784,8 +903,14 @@
       <c r="D20" s="2">
         <v>0.78340668975682448</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>0.52109644300000002</v>
+      </c>
+      <c r="F20">
+        <v>0.72018803399999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0.29199999999999998</v>
       </c>
@@ -798,8 +923,14 @@
       <c r="D21" s="2">
         <v>0.78318523275529339</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>0.52341643199999999</v>
+      </c>
+      <c r="F21">
+        <v>0.72112959300000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0.29099999999999998</v>
       </c>
@@ -812,8 +943,14 @@
       <c r="D22" s="2">
         <v>0.78251662348999862</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>0.52611873900000006</v>
+      </c>
+      <c r="F22">
+        <v>0.71878330599999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0.29099999999999998</v>
       </c>
@@ -826,8 +963,14 @@
       <c r="D23" s="2">
         <v>0.77907834128502618</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>0.53127516900000005</v>
+      </c>
+      <c r="F23">
+        <v>0.72149691900000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0.29199999999999998</v>
       </c>
@@ -840,8 +983,14 @@
       <c r="D24" s="2">
         <v>0.78167421100507328</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>0.53271963900000008</v>
+      </c>
+      <c r="F24">
+        <v>0.71996558999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0.29099999999999998</v>
       </c>
@@ -854,8 +1003,14 @@
       <c r="D25" s="2">
         <v>0.78147495568493663</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>0.52600679400000006</v>
+      </c>
+      <c r="F25">
+        <v>0.71858501699999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0.29199999999999998</v>
       </c>
@@ -868,8 +1023,14 @@
       <c r="D26" s="2">
         <v>0.78125373196610259</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>0.52657500099999999</v>
+      </c>
+      <c r="F26">
+        <v>0.72002337999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0.28899999999999998</v>
       </c>
@@ -882,8 +1043,14 @@
       <c r="D27" s="2">
         <v>0.77806161926370665</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>0.52407068000000001</v>
+      </c>
+      <c r="F27">
+        <v>0.71888885400000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.29099999999999998</v>
       </c>
@@ -896,8 +1063,14 @@
       <c r="D28" s="2">
         <v>0.77885358371835445</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>0.52530323400000001</v>
+      </c>
+      <c r="F28">
+        <v>0.71768346999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0.29499999999999998</v>
       </c>
@@ -910,8 +1083,14 @@
       <c r="D29" s="2">
         <v>0.77950182493969544</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>0.52871384600000004</v>
+      </c>
+      <c r="F29">
+        <v>0.71449548399999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0.29199999999999998</v>
       </c>
@@ -924,8 +1103,14 @@
       <c r="D30" s="2">
         <v>0.77839469782531456</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>0.52712054100000005</v>
+      </c>
+      <c r="F30">
+        <v>0.71432366299999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0.29399999999999998</v>
       </c>
@@ -938,8 +1123,14 @@
       <c r="D31" s="2">
         <v>0.77916997378095776</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>0.52944906300000005</v>
+      </c>
+      <c r="F31">
+        <v>0.71720542499999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0.28899999999999998</v>
       </c>
@@ -952,8 +1143,14 @@
       <c r="D32" s="2">
         <v>0.77901039554642726</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>0.53066777300000001</v>
+      </c>
+      <c r="F32">
+        <v>0.71604824699999992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0.29199999999999998</v>
       </c>
@@ -966,8 +1163,14 @@
       <c r="D33" s="2">
         <v>0.77796353881881042</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>0.53206772700000005</v>
+      </c>
+      <c r="F33">
+        <v>0.71476604899999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0.29499999999999998</v>
       </c>
@@ -980,8 +1183,14 @@
       <c r="D34" s="2">
         <v>0.77991137925572629</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>0.53044619100000001</v>
+      </c>
+      <c r="F34">
+        <v>0.71754518299999992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0.29299999999999998</v>
       </c>
@@ -994,8 +1203,14 @@
       <c r="D35" s="2">
         <v>0.77670135872449098</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>0.529715296</v>
+      </c>
+      <c r="F35">
+        <v>0.71505641899999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0.29199999999999998</v>
       </c>
@@ -1008,8 +1223,14 @@
       <c r="D36" s="2">
         <v>0.77551366056951787</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>0.52738961900000003</v>
+      </c>
+      <c r="F36">
+        <v>0.71727701899999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0.29199999999999998</v>
       </c>
@@ -1022,8 +1243,14 @@
       <c r="D37" s="2">
         <v>0.77639699190147837</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>0.528802259</v>
+      </c>
+      <c r="F37">
+        <v>0.71592472299999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0.29199999999999998</v>
       </c>
@@ -1036,8 +1263,14 @@
       <c r="D38" s="2">
         <v>0.77733267128063033</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>0.52910216500000007</v>
+      </c>
+      <c r="F38">
+        <v>0.71295059299999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0.29399999999999998</v>
       </c>
@@ -1050,8 +1283,14 @@
       <c r="D39" s="2">
         <v>0.77706391358179583</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>0.53120577300000005</v>
+      </c>
+      <c r="F39">
+        <v>0.71369502499999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0.29399999999999998</v>
       </c>
@@ -1064,8 +1303,14 @@
       <c r="D40" s="2">
         <v>0.77799899469741274</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>0.52848134800000002</v>
+      </c>
+      <c r="F40">
+        <v>0.71341358999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0.29399999999999998</v>
       </c>
@@ -1078,8 +1323,14 @@
       <c r="D41" s="2">
         <v>0.77495565077855855</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>0.52957897900000006</v>
+      </c>
+      <c r="F41">
+        <v>0.71449993599999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0.29399999999999998</v>
       </c>
@@ -1092,8 +1343,14 @@
       <c r="D42" s="2">
         <v>0.77492182045234248</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>0.53095809900000002</v>
+      </c>
+      <c r="F42">
+        <v>0.71544060499999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0.29299999999999998</v>
       </c>
@@ -1106,8 +1363,14 @@
       <c r="D43" s="2">
         <v>0.77585839406538792</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>0.52995360600000008</v>
+      </c>
+      <c r="F43">
+        <v>0.71416985599999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0.29199999999999998</v>
       </c>
@@ -1120,8 +1383,14 @@
       <c r="D44" s="2">
         <v>0.77680712574916355</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>0.53011668600000006</v>
+      </c>
+      <c r="F44">
+        <v>0.71326485099999992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0.29299999999999998</v>
       </c>
@@ -1134,8 +1403,14 @@
       <c r="D45" s="2">
         <v>0.77759629459626145</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>0.52826538499999998</v>
+      </c>
+      <c r="F45">
+        <v>0.71610113199999992</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0.29399999999999998</v>
       </c>
@@ -1148,8 +1423,14 @@
       <c r="D46" s="2">
         <v>0.77855357638690992</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>0.52935025099999999</v>
+      </c>
+      <c r="F46">
+        <v>0.71316764700000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0.29499999999999998</v>
       </c>
@@ -1162,8 +1443,14 @@
       <c r="D47" s="2">
         <v>0.77553927782297116</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>0.53334694300000007</v>
+      </c>
+      <c r="F47">
+        <v>0.71296435899999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0.29599999999999999</v>
       </c>
@@ -1176,8 +1463,14 @@
       <c r="D48" s="2">
         <v>0.77749820778683243</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>0.531356316</v>
+      </c>
+      <c r="F48">
+        <v>0.713690826</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0.29399999999999998</v>
       </c>
@@ -1190,8 +1483,14 @@
       <c r="D49" s="2">
         <v>0.77449500695303697</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>0.53072325799999998</v>
+      </c>
+      <c r="F49">
+        <v>0.71396126799999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0.29499999999999998</v>
       </c>
@@ -1204,8 +1503,14 @@
       <c r="D50" s="2">
         <v>0.7774437312328063</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>0.53066789400000003</v>
+      </c>
+      <c r="F50">
+        <v>0.71362046299999993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0.29499999999999998</v>
       </c>
@@ -1218,8 +1523,14 @@
       <c r="D51" s="2">
         <v>0.77437769885966345</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>0.52980943600000008</v>
+      </c>
+      <c r="F51">
+        <v>0.71354251400000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0.29399999999999998</v>
       </c>
@@ -1232,8 +1543,14 @@
       <c r="D52" s="2">
         <v>0.77635976303733978</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>0.53186325600000006</v>
+      </c>
+      <c r="F52">
+        <v>0.71159529999999993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0.29499999999999998</v>
       </c>
@@ -1246,8 +1563,14 @@
       <c r="D53" s="2">
         <v>0.77529197572103314</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>0.53200492700000002</v>
+      </c>
+      <c r="F53">
+        <v>0.71335188500000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0.29499999999999998</v>
       </c>
@@ -1260,8 +1583,14 @@
       <c r="D54" s="2">
         <v>0.77515174174630863</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>0.53097970700000008</v>
+      </c>
+      <c r="F54">
+        <v>0.71349411399999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0.29499999999999998</v>
       </c>
@@ -1274,11 +1603,18 @@
       <c r="D55" s="2">
         <v>0.77512236938360002</v>
       </c>
+      <c r="E55">
+        <v>0.53223929400000003</v>
+      </c>
+      <c r="F55">
+        <v>0.71240176199999994</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Confidence_Files/Dispersion_Morph_95%_Confidence.xlsx
+++ b/Confidence_Files/Dispersion_Morph_95%_Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonysemeraro/Documents/Research/Masters/Data/Data_Processing/Confidence_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9403EE39-3150-D749-A969-DB05214095D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B219DAC4-B630-0D40-A614-DA0DC49709E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17700" xr2:uid="{F582D0B3-7D29-414F-A802-404B8CDD3DF4}"/>
   </bookViews>

--- a/Confidence_Files/Dispersion_Morph_95%_Confidence.xlsx
+++ b/Confidence_Files/Dispersion_Morph_95%_Confidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonysemeraro/Documents/Research/Masters/Data/Data_Processing/Confidence_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B219DAC4-B630-0D40-A614-DA0DC49709E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9BCE89-0D2D-6C43-8DB2-15A170D6C23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17700" xr2:uid="{F582D0B3-7D29-414F-A802-404B8CDD3DF4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17640" xr2:uid="{F582D0B3-7D29-414F-A802-404B8CDD3DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Dispersion 95% Confidence Bounds</t>
   </si>
@@ -72,14 +72,14 @@
   <si>
     <t>Kasai</t>
   </si>
+  <si>
+    <t>Sample (n)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -89,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +114,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -127,14 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -142,6 +146,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -161,20 +172,2901 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Meandering High</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.81519682826615358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69415052353962792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65948162328951931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64433544900158124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6345803831868706</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61546174943010679</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61132042705814971</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60563517085321195</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60732779743584697</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60639171046730111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59535175906619631</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59861282376333536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59554245702344077</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59599595742864375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59541814596131282</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59253982216483758</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5942709586065017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.59560866194805351</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59238097386413313</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.58778160095036847</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.59045030249669028</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.58690163822101116</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.58579342259120593</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58915869498503415</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.58591376828061714</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.58643886225298669</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.58640700512261057</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58823709975851346</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.58609054717119258</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.58677691056135006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.58349450938467828</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.58341633784273317</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.58306597007996075</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.5838950824039012</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.58375903004437646</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.58364683889993663</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.58345630026068496</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.58123760767535904</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.58216294312289973</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.58199265901241082</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.58197060440151172</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.57988825614264528</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.58081496068764216</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.58269167767026719</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.58265247538346887</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5805451870690197</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.58046258185813637</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.58219487310504314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.58215349137232142</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.58114430911896875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8727-CB48-859C-DDC4E66A9929}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Meandering Low</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8727-CB48-859C-DDC4E66A9929}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Braided Low</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.536401799600013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55005894739149441</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56922999456898904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57748055587534686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58366219058604307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58299625623106366</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58371033853852106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59013970777987168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58919724920305439</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59058444009723265</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5989599769078936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59326507051518695</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59397291903606675</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59264914455036366</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59587998250774421</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59358451262922207</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59731221061568096</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.59608074504187591</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59813415102953393</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5980255511420588</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.59806017749362028</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.59782181055158812</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.60110135808972276</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.60134541521398355</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.60138509472249468</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.59875754857671759</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.60004811331487318</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.59938496793282992</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60345768106618247</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.59876331800405735</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.60197561254083765</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60024025574302242</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.60049497282344677</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.60268694548295898</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.60081821269410807</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.6001093515337943</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.60112126147367584</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.60016335449857272</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.60226415536630051</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.60244161662405749</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.60044757431915063</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.60045526363166934</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.60148528334136808</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.60184293773024455</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.60191368749993701</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.60293059363642099</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.60205025118215205</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.60217996740624813</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.60122028666420424</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.60034701295145865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8727-CB48-859C-DDC4E66A9929}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Braided High</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.92726204850164284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84617693838269337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81961689909683588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81370645798732577</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80011747120141974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79752689615250172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79749598723348847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79150273164462648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79116563195445266</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78571044277957702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7861049503305334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78723381759810196</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78317495008740667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78192794349140704</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78340668975682448</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78318523275529339</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.78251662348999862</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77907834128502618</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.78167421100507328</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78147495568493663</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.78125373196610259</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77806161926370665</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.77885358371835445</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.77950182493969544</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.77839469782531456</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.77916997378095776</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.77901039554642726</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.77796353881881042</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.77991137925572629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.77670135872449098</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77551366056951787</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.77639699190147837</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.77733267128063033</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.77706391358179583</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.77799899469741274</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.77495565077855855</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77492182045234248</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.77585839406538792</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.77680712574916355</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.77759629459626145</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77855357638690992</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.77553927782297116</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.77749820778683243</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.77449500695303697</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.7774437312328063</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.77437769885966345</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.77635976303733978</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.77529197572103314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.77515174174630863</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.77512236938360002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8727-CB48-859C-DDC4E66A9929}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Anastomosing Low</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.44036218900000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48223731299999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49981570599999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50441507200000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50633204800000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51135194500000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51077097100000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51439910799999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51689267700000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51804305500000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52230350600000008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51999230100000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52365062500000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52067868800000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52109644300000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52341643199999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52611873900000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53127516900000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53271963900000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52600679400000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52657500099999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.52407068000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.52530323400000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.52871384600000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52712054100000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.52944906300000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.53066777300000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.53206772700000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.53044619100000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.529715296</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.52738961900000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.528802259</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.52910216500000007</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.53120577300000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.52848134800000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.52957897900000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.53095809900000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.52995360600000008</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.53011668600000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.52826538499999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.52935025099999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.53334694300000007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.531356316</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.53072325799999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.53066789400000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.52980943600000008</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.53186325600000006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.53200492700000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.53097970700000008</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.53223929400000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8727-CB48-859C-DDC4E66A9929}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Anastomosing High</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$6:$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.87297309099999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80254503300000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77396637999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75933897500000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74709879999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73629939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.732101946</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.731115395</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72957533699999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72392093000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72669069799999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72385914299999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72528642999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72108159699999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72018803399999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72112959300000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.71878330599999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72149691900000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71996558999999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71858501699999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72002337999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.71888885400000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71768346999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.71449548399999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.71432366299999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.71720542499999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71604824699999992</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.71476604899999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.71754518299999992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71505641899999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.71727701899999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.71592472299999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.71295059299999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.71369502499999993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.71341358999999993</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.71449993599999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.71544060499999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.71416985599999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.71326485099999992</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.71610113199999992</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.71316764700000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.71296435899999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.713690826</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.71396126799999993</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.71362046299999993</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.71354251400000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.71159529999999993</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.71335188500000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.71349411399999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.71240176199999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8727-CB48-859C-DDC4E66A9929}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1503019744"/>
+        <c:axId val="1503339520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1503019744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1503339520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1503339520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1503019744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>754825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>565780</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9016</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -189,8 +3081,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9067800" y="546100"/>
-          <a:ext cx="3111500" cy="4546600"/>
+          <a:off x="8122764" y="339604"/>
+          <a:ext cx="3107138" cy="4555519"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -236,6 +3128,42 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>807063</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>178345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>61452</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>81936</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C31B1D1-DE68-450A-7413-4D6786239AF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -538,10 +3466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87236F43-B2BE-B840-8522-EFC02FBD0ACB}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,12 +3479,12 @@
     <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -569,8 +3497,11 @@
         <v>9</v>
       </c>
       <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -590,7 +3521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -610,1004 +3541,1203 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>0.26900000000000002</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="7">
         <v>0.81519682826615358</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>0.536401799600013</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="7">
         <v>0.92726204850164284</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>0.44036218900000001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>0.87297309099999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>0.29099999999999998</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="7">
         <v>0.69415052353962792</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>0.55005894739149441</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="7">
         <v>0.84617693838269337</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>0.48223731299999995</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>0.80254503300000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="G7" s="2">
+        <f>G6+5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>0.28699999999999998</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="7">
         <v>0.65948162328951931</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>0.56922999456898904</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="7">
         <v>0.81961689909683588</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>0.49981570599999992</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>0.77396637999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G55" si="0">G7+5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>0.27800000000000002</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="7">
         <v>0.64433544900158124</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>0.57748055587534686</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
         <v>0.81370645798732577</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>0.50441507200000002</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>0.75933897500000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="7">
         <v>0.6345803831868706</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>0.58366219058604307</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="7">
         <v>0.80011747120141974</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>0.50633204800000009</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>0.74709879999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="7">
         <v>0.61546174943010679</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>0.58299625623106366</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="7">
         <v>0.79752689615250172</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>0.51135194500000003</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>0.73629939</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>0.28399999999999997</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="7">
         <v>0.61132042705814971</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="7">
         <v>0.58371033853852106</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="7">
         <v>0.79749598723348847</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>0.51077097100000002</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>0.732101946</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>0.29399999999999998</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="7">
         <v>0.60563517085321195</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <v>0.59013970777987168</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="7">
         <v>0.79150273164462648</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>0.51439910799999999</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <v>0.731115395</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>0.29099999999999998</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="7">
         <v>0.60732779743584697</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="7">
         <v>0.58919724920305439</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="7">
         <v>0.79116563195445266</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>0.51689267700000008</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>0.72957533699999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <v>0.28799999999999998</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="7">
         <v>0.60639171046730111</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="7">
         <v>0.59058444009723265</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="7">
         <v>0.78571044277957702</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>0.51804305500000003</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>0.72392093000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="8">
         <v>0.59535175906619631</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="8">
         <v>0.5989599769078936</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="7">
         <v>0.7861049503305334</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>0.52230350600000008</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>0.72669069799999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="8">
         <v>0.59861282376333536</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="8">
         <v>0.59326507051518695</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="7">
         <v>0.78723381759810196</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>0.51999230100000005</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>0.72385914299999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <v>0.28699999999999998</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="8">
         <v>0.59554245702344077</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="8">
         <v>0.59397291903606675</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="7">
         <v>0.78317495008740667</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>0.52365062500000004</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <v>0.72528642999999993</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
         <v>0.29399999999999998</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="8">
         <v>0.59599595742864375</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="8">
         <v>0.59264914455036366</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="7">
         <v>0.78192794349140704</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>0.52067868800000006</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>0.72108159699999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>0.29299999999999998</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="8">
         <v>0.59541814596131282</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="8">
         <v>0.59587998250774421</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="7">
         <v>0.78340668975682448</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>0.52109644300000002</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <v>0.72018803399999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="8">
         <v>0.59253982216483758</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="8">
         <v>0.59358451262922207</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="7">
         <v>0.78318523275529339</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>0.52341643199999999</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <v>0.72112959300000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <v>0.29099999999999998</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="8">
         <v>0.5942709586065017</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="8">
         <v>0.59731221061568096</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="7">
         <v>0.78251662348999862</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <v>0.52611873900000006</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="6">
         <v>0.71878330599999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
         <v>0.29099999999999998</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="8">
         <v>0.59560866194805351</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="8">
         <v>0.59608074504187591</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="7">
         <v>0.77907834128502618</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>0.53127516900000005</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <v>0.72149691900000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="7">
         <v>0.59238097386413313</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="7">
         <v>0.59813415102953393</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="7">
         <v>0.78167421100507328</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <v>0.53271963900000008</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <v>0.71996558999999993</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
         <v>0.29099999999999998</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="7">
         <v>0.58778160095036847</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="7">
         <v>0.5980255511420588</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="7">
         <v>0.78147495568493663</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <v>0.52600679400000006</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <v>0.71858501699999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="7">
         <v>0.59045030249669028</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="7">
         <v>0.59806017749362028</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="7">
         <v>0.78125373196610259</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <v>0.52657500099999999</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <v>0.72002337999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
         <v>0.28899999999999998</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="7">
         <v>0.58690163822101116</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="7">
         <v>0.59782181055158812</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="7">
         <v>0.77806161926370665</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
         <v>0.52407068000000001</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6">
         <v>0.71888885400000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
         <v>0.29099999999999998</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="7">
         <v>0.58579342259120593</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="7">
         <v>0.60110135808972276</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="7">
         <v>0.77885358371835445</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="6">
         <v>0.52530323400000001</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <v>0.71768346999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
         <v>0.29499999999999998</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="7">
         <v>0.58915869498503415</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="7">
         <v>0.60134541521398355</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="7">
         <v>0.77950182493969544</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <v>0.52871384600000004</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6">
         <v>0.71449548399999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="7">
         <v>0.58591376828061714</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="7">
         <v>0.60138509472249468</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="7">
         <v>0.77839469782531456</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="6">
         <v>0.52712054100000005</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="6">
         <v>0.71432366299999994</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
         <v>0.29399999999999998</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="7">
         <v>0.58643886225298669</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="7">
         <v>0.59875754857671759</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="7">
         <v>0.77916997378095776</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <v>0.52944906300000005</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="6">
         <v>0.71720542499999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
         <v>0.28899999999999998</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="7">
         <v>0.58640700512261057</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="7">
         <v>0.60004811331487318</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="7">
         <v>0.77901039554642726</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="6">
         <v>0.53066777300000001</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="6">
         <v>0.71604824699999992</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="G32" s="2">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="7">
         <v>0.58823709975851346</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="7">
         <v>0.59938496793282992</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="7">
         <v>0.77796353881881042</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="6">
         <v>0.53206772700000005</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="6">
         <v>0.71476604899999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="G33" s="2">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
         <v>0.29499999999999998</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="7">
         <v>0.58609054717119258</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="7">
         <v>0.60345768106618247</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="7">
         <v>0.77991137925572629</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="6">
         <v>0.53044619100000001</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="6">
         <v>0.71754518299999992</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="G34" s="2">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
         <v>0.29299999999999998</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="7">
         <v>0.58677691056135006</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="7">
         <v>0.59876331800405735</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="7">
         <v>0.77670135872449098</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="6">
         <v>0.529715296</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="6">
         <v>0.71505641899999994</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="G35" s="2">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="7">
         <v>0.58349450938467828</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="7">
         <v>0.60197561254083765</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="7">
         <v>0.77551366056951787</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="6">
         <v>0.52738961900000003</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="6">
         <v>0.71727701899999996</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="G36" s="2">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="7">
         <v>0.58341633784273317</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="7">
         <v>0.60024025574302242</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="7">
         <v>0.77639699190147837</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="6">
         <v>0.528802259</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="6">
         <v>0.71592472299999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="G37" s="2">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="7">
         <v>0.58306597007996075</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="7">
         <v>0.60049497282344677</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="7">
         <v>0.77733267128063033</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="6">
         <v>0.52910216500000007</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="6">
         <v>0.71295059299999997</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="G38" s="2">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
         <v>0.29399999999999998</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="7">
         <v>0.5838950824039012</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="7">
         <v>0.60268694548295898</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="7">
         <v>0.77706391358179583</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="6">
         <v>0.53120577300000005</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="6">
         <v>0.71369502499999993</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="G39" s="2">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
         <v>0.29399999999999998</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="7">
         <v>0.58375903004437646</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="7">
         <v>0.60081821269410807</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="7">
         <v>0.77799899469741274</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="6">
         <v>0.52848134800000002</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="6">
         <v>0.71341358999999993</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="G40" s="2">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
         <v>0.29399999999999998</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="7">
         <v>0.58364683889993663</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="7">
         <v>0.6001093515337943</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="7">
         <v>0.77495565077855855</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="6">
         <v>0.52957897900000006</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="6">
         <v>0.71449993599999995</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="G41" s="2">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
         <v>0.29399999999999998</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="7">
         <v>0.58345630026068496</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="7">
         <v>0.60112126147367584</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="7">
         <v>0.77492182045234248</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="6">
         <v>0.53095809900000002</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="6">
         <v>0.71544060499999995</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="G42" s="2">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
         <v>0.29299999999999998</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="7">
         <v>0.58123760767535904</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="7">
         <v>0.60016335449857272</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="7">
         <v>0.77585839406538792</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="6">
         <v>0.52995360600000008</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="6">
         <v>0.71416985599999994</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="G43" s="2">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="7">
         <v>0.58216294312289973</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="7">
         <v>0.60226415536630051</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="7">
         <v>0.77680712574916355</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="6">
         <v>0.53011668600000006</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="6">
         <v>0.71326485099999992</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="G44" s="2">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
         <v>0.29299999999999998</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="7">
         <v>0.58199265901241082</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="7">
         <v>0.60244161662405749</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="7">
         <v>0.77759629459626145</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="6">
         <v>0.52826538499999998</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="6">
         <v>0.71610113199999992</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="G45" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
         <v>0.29399999999999998</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="7">
         <v>0.58197060440151172</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="7">
         <v>0.60044757431915063</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="7">
         <v>0.77855357638690992</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="6">
         <v>0.52935025099999999</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="6">
         <v>0.71316764700000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="G46" s="2">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
         <v>0.29499999999999998</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="7">
         <v>0.57988825614264528</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="7">
         <v>0.60045526363166934</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="7">
         <v>0.77553927782297116</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="6">
         <v>0.53334694300000007</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="6">
         <v>0.71296435899999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="G47" s="2">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
         <v>0.29599999999999999</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="7">
         <v>0.58081496068764216</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="7">
         <v>0.60148528334136808</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="7">
         <v>0.77749820778683243</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="6">
         <v>0.531356316</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="6">
         <v>0.713690826</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="G48" s="2">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
         <v>0.29399999999999998</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="7">
         <v>0.58269167767026719</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="7">
         <v>0.60184293773024455</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="7">
         <v>0.77449500695303697</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="6">
         <v>0.53072325799999998</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="6">
         <v>0.71396126799999993</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="G49" s="2">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
         <v>0.29499999999999998</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="7">
         <v>0.58265247538346887</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="7">
         <v>0.60191368749993701</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="7">
         <v>0.7774437312328063</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="6">
         <v>0.53066789400000003</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="6">
         <v>0.71362046299999993</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="G50" s="2">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
         <v>0.29499999999999998</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="7">
         <v>0.5805451870690197</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="7">
         <v>0.60293059363642099</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="7">
         <v>0.77437769885966345</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="6">
         <v>0.52980943600000008</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="6">
         <v>0.71354251400000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="G51" s="2">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
         <v>0.29399999999999998</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="7">
         <v>0.58046258185813637</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="7">
         <v>0.60205025118215205</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="7">
         <v>0.77635976303733978</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="6">
         <v>0.53186325600000006</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="6">
         <v>0.71159529999999993</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="G52" s="2">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
         <v>0.29499999999999998</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="7">
         <v>0.58219487310504314</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="7">
         <v>0.60217996740624813</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="7">
         <v>0.77529197572103314</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="6">
         <v>0.53200492700000002</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="6">
         <v>0.71335188500000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="G53" s="2">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
         <v>0.29499999999999998</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="7">
         <v>0.58215349137232142</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="7">
         <v>0.60122028666420424</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="7">
         <v>0.77515174174630863</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="6">
         <v>0.53097970700000008</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="6">
         <v>0.71349411399999996</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="G54" s="2">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
         <v>0.29499999999999998</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="7">
         <v>0.58114430911896875</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="7">
         <v>0.60034701295145865</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="7">
         <v>0.77512236938360002</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="6">
         <v>0.53223929400000003</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="6">
         <v>0.71240176199999994</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Confidence_Files/Dispersion_Morph_95%_Confidence.xlsx
+++ b/Confidence_Files/Dispersion_Morph_95%_Confidence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonysemeraro/Documents/Research/Masters/Data/Data_Processing/Confidence_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9BCE89-0D2D-6C43-8DB2-15A170D6C23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9BC147-3C71-DF40-945C-27024604B907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17640" xr2:uid="{F582D0B3-7D29-414F-A802-404B8CDD3DF4}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>Hvanneyri</t>
   </si>
   <si>
-    <t>Australia Basin</t>
-  </si>
-  <si>
     <t>Matukituki</t>
   </si>
   <si>
@@ -75,15 +72,28 @@
   <si>
     <t>Sample (n)</t>
   </si>
+  <si>
+    <t>Napo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,12 +143,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -148,11 +170,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -532,7 +553,7 @@
                 <c:pt idx="48">
                   <c:v>0.58215349137232142</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="49" formatCode="0.000">
                   <c:v>0.58114430911896875</c:v>
                 </c:pt>
               </c:numCache>
@@ -736,157 +757,157 @@
             <c:numRef>
               <c:f>Sheet1!$A$6:$A$55</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.26900000000000002</c:v>
+                  <c:v>0.31540180000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29099999999999998</c:v>
+                  <c:v>0.29005894999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28699999999999998</c:v>
+                  <c:v>0.29022999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27800000000000002</c:v>
+                  <c:v>0.28548055999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.27866218999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.27499625999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28399999999999997</c:v>
+                  <c:v>0.28871034000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.27513970999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29099999999999998</c:v>
+                  <c:v>0.27419725</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28799999999999998</c:v>
+                  <c:v>0.27858443999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29199999999999998</c:v>
+                  <c:v>0.27595997999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.29199999999999998</c:v>
+                  <c:v>0.27426507</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28699999999999998</c:v>
+                  <c:v>0.27397292000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.28264915000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29299999999999998</c:v>
+                  <c:v>0.27587998000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.29199999999999998</c:v>
+                  <c:v>0.27058451</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.29099999999999998</c:v>
+                  <c:v>0.27131221</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.29099999999999998</c:v>
+                  <c:v>0.27408074999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.29199999999999998</c:v>
+                  <c:v>0.27813415000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.29099999999999998</c:v>
+                  <c:v>0.27502555000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.29199999999999998</c:v>
+                  <c:v>0.27506017999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.28899999999999998</c:v>
+                  <c:v>0.27182181</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.29099999999999998</c:v>
+                  <c:v>0.27510136000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.29499999999999998</c:v>
+                  <c:v>0.27334542000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.29199999999999998</c:v>
+                  <c:v>0.27638509999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.27475755000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.28899999999999998</c:v>
+                  <c:v>0.27504811000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.29199999999999998</c:v>
+                  <c:v>0.27338497</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.29499999999999998</c:v>
+                  <c:v>0.27545767999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.29299999999999998</c:v>
+                  <c:v>0.27376331999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.29199999999999998</c:v>
+                  <c:v>0.26997560999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.29199999999999998</c:v>
+                  <c:v>0.27424026000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.29199999999999998</c:v>
+                  <c:v>0.27549497000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.27568694999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.27581821000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.27510934999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.27412125999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.29299999999999998</c:v>
+                  <c:v>0.27516334999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.29199999999999998</c:v>
+                  <c:v>0.27526415999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.29299999999999998</c:v>
+                  <c:v>0.27444162</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.27544756999999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.29499999999999998</c:v>
+                  <c:v>0.27345525999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.29599999999999999</c:v>
+                  <c:v>0.27548528</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.27484293999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.29499999999999998</c:v>
+                  <c:v>0.27491368999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.29499999999999998</c:v>
+                  <c:v>0.27293058999999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.27305024999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.29499999999999998</c:v>
+                  <c:v>0.27317996999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.29499999999999998</c:v>
+                  <c:v>0.27622028999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.29499999999999998</c:v>
+                  <c:v>0.27534701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,7 +1259,7 @@
                 <c:pt idx="48">
                   <c:v>0.60122028666420424</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="49" formatCode="0.000">
                   <c:v>0.60034701295145865</c:v>
                 </c:pt>
               </c:numCache>
@@ -1556,7 +1577,7 @@
                   <c:v>0.77492182045234248</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.77585839406538792</c:v>
+                  <c:v>0.77585839406538804</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.77680712574916355</c:v>
@@ -1591,7 +1612,7 @@
                 <c:pt idx="48">
                   <c:v>0.77515174174630863</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="49" formatCode="0.000">
                   <c:v>0.77512236938360002</c:v>
                 </c:pt>
               </c:numCache>
@@ -1944,7 +1965,7 @@
                 <c:pt idx="48">
                   <c:v>0.53097970700000008</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="49" formatCode="0.000">
                   <c:v>0.53223929400000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -2297,7 +2318,7 @@
                 <c:pt idx="48">
                   <c:v>0.71349411399999996</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="49" formatCode="0.000">
                   <c:v>0.71240176199999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -3468,8 +3489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87236F43-B2BE-B840-8522-EFC02FBD0ACB}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3485,20 +3506,20 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11"/>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3523,41 +3544,41 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="A6" s="12">
+        <v>0.31540180000000001</v>
+      </c>
+      <c r="B6" s="4">
         <v>0.81519682826615358</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>0.536401799600013</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>0.92726204850164284</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>0.44036218900000001</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>0.87297309099999998</v>
       </c>
       <c r="G6" s="2">
@@ -3565,22 +3586,22 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="A7" s="12">
+        <v>0.29005894999999998</v>
+      </c>
+      <c r="B7" s="4">
         <v>0.69415052353962792</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>0.55005894739149441</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>0.84617693838269337</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>0.48223731299999995</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>0.80254503300000002</v>
       </c>
       <c r="G7" s="2">
@@ -3589,22 +3610,22 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="12">
+        <v>0.29022999999999999</v>
+      </c>
+      <c r="B8" s="4">
         <v>0.65948162328951931</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>0.56922999456898904</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>0.81961689909683588</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>0.49981570599999992</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>0.77396637999999995</v>
       </c>
       <c r="G8" s="2">
@@ -3613,22 +3634,22 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="A9" s="12">
+        <v>0.28548055999999999</v>
+      </c>
+      <c r="B9" s="4">
         <v>0.64433544900158124</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>0.57748055587534686</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>0.81370645798732577</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>0.50441507200000002</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>0.75933897500000003</v>
       </c>
       <c r="G9" s="2">
@@ -3637,22 +3658,22 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="A10" s="12">
+        <v>0.27866218999999998</v>
+      </c>
+      <c r="B10" s="4">
         <v>0.6345803831868706</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>0.58366219058604307</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>0.80011747120141974</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>0.50633204800000009</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>0.74709879999999995</v>
       </c>
       <c r="G10" s="2">
@@ -3661,22 +3682,22 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="12">
+        <v>0.27499625999999999</v>
+      </c>
+      <c r="B11" s="4">
         <v>0.61546174943010679</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>0.58299625623106366</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>0.79752689615250172</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>0.51135194500000003</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>0.73629939</v>
       </c>
       <c r="G11" s="2">
@@ -3685,22 +3706,22 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="A12" s="12">
+        <v>0.28871034000000001</v>
+      </c>
+      <c r="B12" s="4">
         <v>0.61132042705814971</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>0.58371033853852106</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>0.79749598723348847</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>0.51077097100000002</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>0.732101946</v>
       </c>
       <c r="G12" s="2">
@@ -3709,22 +3730,22 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="12">
+        <v>0.27513970999999998</v>
+      </c>
+      <c r="B13" s="4">
         <v>0.60563517085321195</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>0.59013970777987168</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>0.79150273164462648</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>0.51439910799999999</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>0.731115395</v>
       </c>
       <c r="G13" s="2">
@@ -3733,22 +3754,22 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="A14" s="12">
+        <v>0.27419725</v>
+      </c>
+      <c r="B14" s="4">
         <v>0.60732779743584697</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>0.58919724920305439</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>0.79116563195445266</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>0.51689267700000008</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>0.72957533699999999</v>
       </c>
       <c r="G14" s="2">
@@ -3757,22 +3778,22 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="A15" s="12">
+        <v>0.27858443999999999</v>
+      </c>
+      <c r="B15" s="4">
         <v>0.60639171046730111</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>0.59058444009723265</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>0.78571044277957702</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>0.51804305500000003</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>0.72392093000000002</v>
       </c>
       <c r="G15" s="2">
@@ -3781,22 +3802,22 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="12">
+        <v>0.27595997999999999</v>
+      </c>
+      <c r="B16" s="5">
         <v>0.59535175906619631</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>0.5989599769078936</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>0.7861049503305334</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>0.52230350600000008</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="3">
         <v>0.72669069799999997</v>
       </c>
       <c r="G16" s="2">
@@ -3805,22 +3826,22 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="A17" s="12">
+        <v>0.27426507</v>
+      </c>
+      <c r="B17" s="5">
         <v>0.59861282376333536</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>0.59326507051518695</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>0.78723381759810196</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3">
         <v>0.51999230100000005</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="3">
         <v>0.72385914299999998</v>
       </c>
       <c r="G17" s="2">
@@ -3829,22 +3850,22 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="A18" s="12">
+        <v>0.27397292000000001</v>
+      </c>
+      <c r="B18" s="5">
         <v>0.59554245702344077</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <v>0.59397291903606675</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <v>0.78317495008740667</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>0.52365062500000004</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <v>0.72528642999999993</v>
       </c>
       <c r="G18" s="2">
@@ -3853,22 +3874,22 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="A19" s="12">
+        <v>0.28264915000000002</v>
+      </c>
+      <c r="B19" s="5">
         <v>0.59599595742864375</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <v>0.59264914455036366</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <v>0.78192794349140704</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>0.52067868800000006</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>0.72108159699999996</v>
       </c>
       <c r="G19" s="2">
@@ -3877,22 +3898,22 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="A20" s="12">
+        <v>0.27587998000000002</v>
+      </c>
+      <c r="B20" s="5">
         <v>0.59541814596131282</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <v>0.59587998250774421</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="4">
         <v>0.78340668975682448</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>0.52109644300000002</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="3">
         <v>0.72018803399999998</v>
       </c>
       <c r="G20" s="2">
@@ -3901,22 +3922,22 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="B21" s="8">
+      <c r="A21" s="12">
+        <v>0.27058451</v>
+      </c>
+      <c r="B21" s="5">
         <v>0.59253982216483758</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <v>0.59358451262922207</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <v>0.78318523275529339</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3">
         <v>0.52341643199999999</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>0.72112959300000001</v>
       </c>
       <c r="G21" s="2">
@@ -3925,22 +3946,22 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="B22" s="8">
+      <c r="A22" s="12">
+        <v>0.27131221</v>
+      </c>
+      <c r="B22" s="5">
         <v>0.5942709586065017</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="5">
         <v>0.59731221061568096</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="4">
         <v>0.78251662348999862</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3">
         <v>0.52611873900000006</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3">
         <v>0.71878330599999996</v>
       </c>
       <c r="G22" s="2">
@@ -3949,22 +3970,22 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="B23" s="8">
+      <c r="A23" s="12">
+        <v>0.27408074999999998</v>
+      </c>
+      <c r="B23" s="5">
         <v>0.59560866194805351</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="5">
         <v>0.59608074504187591</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="4">
         <v>0.77907834128502618</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <v>0.53127516900000005</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="3">
         <v>0.72149691900000001</v>
       </c>
       <c r="G23" s="2">
@@ -3973,22 +3994,22 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="B24" s="7">
+      <c r="A24" s="12">
+        <v>0.27813415000000002</v>
+      </c>
+      <c r="B24" s="4">
         <v>0.59238097386413313</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="4">
         <v>0.59813415102953393</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="4">
         <v>0.78167421100507328</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <v>0.53271963900000008</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="3">
         <v>0.71996558999999993</v>
       </c>
       <c r="G24" s="2">
@@ -3997,22 +4018,22 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="12">
+        <v>0.27502555000000001</v>
+      </c>
+      <c r="B25" s="4">
         <v>0.58778160095036847</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="4">
         <v>0.5980255511420588</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="4">
         <v>0.78147495568493663</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="3">
         <v>0.52600679400000006</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="3">
         <v>0.71858501699999999</v>
       </c>
       <c r="G25" s="2">
@@ -4021,22 +4042,22 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="B26" s="7">
+      <c r="A26" s="12">
+        <v>0.27506017999999999</v>
+      </c>
+      <c r="B26" s="4">
         <v>0.59045030249669028</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="4">
         <v>0.59806017749362028</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="4">
         <v>0.78125373196610259</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="3">
         <v>0.52657500099999999</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="3">
         <v>0.72002337999999999</v>
       </c>
       <c r="G26" s="2">
@@ -4045,22 +4066,22 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="B27" s="7">
+      <c r="A27" s="12">
+        <v>0.27182181</v>
+      </c>
+      <c r="B27" s="4">
         <v>0.58690163822101116</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="4">
         <v>0.59782181055158812</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="4">
         <v>0.77806161926370665</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="3">
         <v>0.52407068000000001</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="3">
         <v>0.71888885400000002</v>
       </c>
       <c r="G27" s="2">
@@ -4069,22 +4090,22 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="B28" s="7">
+      <c r="A28" s="12">
+        <v>0.27510136000000002</v>
+      </c>
+      <c r="B28" s="4">
         <v>0.58579342259120593</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="4">
         <v>0.60110135808972276</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="4">
         <v>0.77885358371835445</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="3">
         <v>0.52530323400000001</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="3">
         <v>0.71768346999999999</v>
       </c>
       <c r="G28" s="2">
@@ -4093,22 +4114,22 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="B29" s="7">
+      <c r="A29" s="12">
+        <v>0.27334542000000001</v>
+      </c>
+      <c r="B29" s="4">
         <v>0.58915869498503415</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="4">
         <v>0.60134541521398355</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <v>0.77950182493969544</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="3">
         <v>0.52871384600000004</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="3">
         <v>0.71449548399999996</v>
       </c>
       <c r="G29" s="2">
@@ -4117,22 +4138,22 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="B30" s="7">
+      <c r="A30" s="12">
+        <v>0.27638509999999999</v>
+      </c>
+      <c r="B30" s="4">
         <v>0.58591376828061714</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="4">
         <v>0.60138509472249468</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="4">
         <v>0.77839469782531456</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="3">
         <v>0.52712054100000005</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="3">
         <v>0.71432366299999994</v>
       </c>
       <c r="G30" s="2">
@@ -4141,22 +4162,22 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="B31" s="7">
+      <c r="A31" s="12">
+        <v>0.27475755000000002</v>
+      </c>
+      <c r="B31" s="4">
         <v>0.58643886225298669</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="4">
         <v>0.59875754857671759</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="4">
         <v>0.77916997378095776</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="3">
         <v>0.52944906300000005</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="3">
         <v>0.71720542499999995</v>
       </c>
       <c r="G31" s="2">
@@ -4165,22 +4186,22 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="B32" s="7">
+      <c r="A32" s="12">
+        <v>0.27504811000000001</v>
+      </c>
+      <c r="B32" s="4">
         <v>0.58640700512261057</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="4">
         <v>0.60004811331487318</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="4">
         <v>0.77901039554642726</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="3">
         <v>0.53066777300000001</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="3">
         <v>0.71604824699999992</v>
       </c>
       <c r="G32" s="2">
@@ -4189,22 +4210,22 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="B33" s="7">
+      <c r="A33" s="12">
+        <v>0.27338497</v>
+      </c>
+      <c r="B33" s="4">
         <v>0.58823709975851346</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="4">
         <v>0.59938496793282992</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="4">
         <v>0.77796353881881042</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="3">
         <v>0.53206772700000005</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="3">
         <v>0.71476604899999996</v>
       </c>
       <c r="G33" s="2">
@@ -4213,22 +4234,22 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="B34" s="7">
+      <c r="A34" s="12">
+        <v>0.27545767999999998</v>
+      </c>
+      <c r="B34" s="4">
         <v>0.58609054717119258</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="4">
         <v>0.60345768106618247</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="4">
         <v>0.77991137925572629</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="3">
         <v>0.53044619100000001</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="3">
         <v>0.71754518299999992</v>
       </c>
       <c r="G34" s="2">
@@ -4237,22 +4258,22 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="B35" s="7">
+      <c r="A35" s="12">
+        <v>0.27376331999999998</v>
+      </c>
+      <c r="B35" s="4">
         <v>0.58677691056135006</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="4">
         <v>0.59876331800405735</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="4">
         <v>0.77670135872449098</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="3">
         <v>0.529715296</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="3">
         <v>0.71505641899999994</v>
       </c>
       <c r="G35" s="2">
@@ -4261,22 +4282,22 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="B36" s="7">
+      <c r="A36" s="12">
+        <v>0.26997560999999998</v>
+      </c>
+      <c r="B36" s="4">
         <v>0.58349450938467828</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="4">
         <v>0.60197561254083765</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="4">
         <v>0.77551366056951787</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="3">
         <v>0.52738961900000003</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="3">
         <v>0.71727701899999996</v>
       </c>
       <c r="G36" s="2">
@@ -4285,22 +4306,22 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="B37" s="7">
+      <c r="A37" s="12">
+        <v>0.27424026000000001</v>
+      </c>
+      <c r="B37" s="4">
         <v>0.58341633784273317</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="4">
         <v>0.60024025574302242</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="4">
         <v>0.77639699190147837</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="3">
         <v>0.528802259</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="3">
         <v>0.71592472299999999</v>
       </c>
       <c r="G37" s="2">
@@ -4309,22 +4330,22 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="B38" s="7">
+      <c r="A38" s="12">
+        <v>0.27549497000000001</v>
+      </c>
+      <c r="B38" s="4">
         <v>0.58306597007996075</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="4">
         <v>0.60049497282344677</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="4">
         <v>0.77733267128063033</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="3">
         <v>0.52910216500000007</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="3">
         <v>0.71295059299999997</v>
       </c>
       <c r="G38" s="2">
@@ -4333,22 +4354,22 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="B39" s="7">
+      <c r="A39" s="12">
+        <v>0.27568694999999999</v>
+      </c>
+      <c r="B39" s="4">
         <v>0.5838950824039012</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="4">
         <v>0.60268694548295898</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="4">
         <v>0.77706391358179583</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="3">
         <v>0.53120577300000005</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="3">
         <v>0.71369502499999993</v>
       </c>
       <c r="G39" s="2">
@@ -4357,22 +4378,22 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="B40" s="7">
+      <c r="A40" s="12">
+        <v>0.27581821000000001</v>
+      </c>
+      <c r="B40" s="4">
         <v>0.58375903004437646</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="4">
         <v>0.60081821269410807</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="4">
         <v>0.77799899469741274</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="3">
         <v>0.52848134800000002</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="3">
         <v>0.71341358999999993</v>
       </c>
       <c r="G40" s="2">
@@ -4381,22 +4402,22 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="B41" s="7">
+      <c r="A41" s="12">
+        <v>0.27510934999999997</v>
+      </c>
+      <c r="B41" s="4">
         <v>0.58364683889993663</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="4">
         <v>0.6001093515337943</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="4">
         <v>0.77495565077855855</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="3">
         <v>0.52957897900000006</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="3">
         <v>0.71449993599999995</v>
       </c>
       <c r="G41" s="2">
@@ -4405,22 +4426,22 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="B42" s="7">
+      <c r="A42" s="12">
+        <v>0.27412125999999998</v>
+      </c>
+      <c r="B42" s="4">
         <v>0.58345630026068496</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="4">
         <v>0.60112126147367584</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="4">
         <v>0.77492182045234248</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="3">
         <v>0.53095809900000002</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="3">
         <v>0.71544060499999995</v>
       </c>
       <c r="G42" s="2">
@@ -4429,22 +4450,22 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="B43" s="7">
+      <c r="A43" s="12">
+        <v>0.27516334999999997</v>
+      </c>
+      <c r="B43" s="4">
         <v>0.58123760767535904</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="4">
         <v>0.60016335449857272</v>
       </c>
-      <c r="D43" s="7">
-        <v>0.77585839406538792</v>
-      </c>
-      <c r="E43" s="6">
+      <c r="D43" s="4">
+        <v>0.77585839406538804</v>
+      </c>
+      <c r="E43" s="3">
         <v>0.52995360600000008</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="3">
         <v>0.71416985599999994</v>
       </c>
       <c r="G43" s="2">
@@ -4453,22 +4474,22 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="B44" s="7">
+      <c r="A44" s="12">
+        <v>0.27526415999999998</v>
+      </c>
+      <c r="B44" s="4">
         <v>0.58216294312289973</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="4">
         <v>0.60226415536630051</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="4">
         <v>0.77680712574916355</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="3">
         <v>0.53011668600000006</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="3">
         <v>0.71326485099999992</v>
       </c>
       <c r="G44" s="2">
@@ -4477,22 +4498,22 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="B45" s="7">
+      <c r="A45" s="12">
+        <v>0.27444162</v>
+      </c>
+      <c r="B45" s="4">
         <v>0.58199265901241082</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="4">
         <v>0.60244161662405749</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="4">
         <v>0.77759629459626145</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="3">
         <v>0.52826538499999998</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="3">
         <v>0.71610113199999992</v>
       </c>
       <c r="G45" s="2">
@@ -4501,22 +4522,22 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="B46" s="7">
+      <c r="A46" s="12">
+        <v>0.27544756999999997</v>
+      </c>
+      <c r="B46" s="4">
         <v>0.58197060440151172</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="4">
         <v>0.60044757431915063</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="4">
         <v>0.77855357638690992</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="3">
         <v>0.52935025099999999</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="3">
         <v>0.71316764700000002</v>
       </c>
       <c r="G46" s="2">
@@ -4525,22 +4546,22 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="B47" s="7">
+      <c r="A47" s="12">
+        <v>0.27345525999999998</v>
+      </c>
+      <c r="B47" s="4">
         <v>0.57988825614264528</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="4">
         <v>0.60045526363166934</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="4">
         <v>0.77553927782297116</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="3">
         <v>0.53334694300000007</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="3">
         <v>0.71296435899999999</v>
       </c>
       <c r="G47" s="2">
@@ -4549,22 +4570,22 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="B48" s="7">
+      <c r="A48" s="12">
+        <v>0.27548528</v>
+      </c>
+      <c r="B48" s="4">
         <v>0.58081496068764216</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="4">
         <v>0.60148528334136808</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="4">
         <v>0.77749820778683243</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="3">
         <v>0.531356316</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="3">
         <v>0.713690826</v>
       </c>
       <c r="G48" s="2">
@@ -4573,22 +4594,22 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="B49" s="7">
+      <c r="A49" s="12">
+        <v>0.27484293999999998</v>
+      </c>
+      <c r="B49" s="4">
         <v>0.58269167767026719</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="4">
         <v>0.60184293773024455</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="4">
         <v>0.77449500695303697</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="3">
         <v>0.53072325799999998</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="3">
         <v>0.71396126799999993</v>
       </c>
       <c r="G49" s="2">
@@ -4597,22 +4618,22 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="B50" s="7">
+      <c r="A50" s="12">
+        <v>0.27491368999999999</v>
+      </c>
+      <c r="B50" s="4">
         <v>0.58265247538346887</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="4">
         <v>0.60191368749993701</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="4">
         <v>0.7774437312328063</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="3">
         <v>0.53066789400000003</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="3">
         <v>0.71362046299999993</v>
       </c>
       <c r="G50" s="2">
@@ -4621,22 +4642,22 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="B51" s="7">
+      <c r="A51" s="12">
+        <v>0.27293058999999997</v>
+      </c>
+      <c r="B51" s="4">
         <v>0.5805451870690197</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="4">
         <v>0.60293059363642099</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="4">
         <v>0.77437769885966345</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="3">
         <v>0.52980943600000008</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="3">
         <v>0.71354251400000002</v>
       </c>
       <c r="G51" s="2">
@@ -4645,22 +4666,22 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="B52" s="7">
+      <c r="A52" s="12">
+        <v>0.27305024999999999</v>
+      </c>
+      <c r="B52" s="4">
         <v>0.58046258185813637</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="4">
         <v>0.60205025118215205</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="4">
         <v>0.77635976303733978</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="3">
         <v>0.53186325600000006</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="3">
         <v>0.71159529999999993</v>
       </c>
       <c r="G52" s="2">
@@ -4669,22 +4690,22 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="B53" s="7">
+      <c r="A53" s="12">
+        <v>0.27317996999999999</v>
+      </c>
+      <c r="B53" s="4">
         <v>0.58219487310504314</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="4">
         <v>0.60217996740624813</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="4">
         <v>0.77529197572103314</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="3">
         <v>0.53200492700000002</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="3">
         <v>0.71335188500000002</v>
       </c>
       <c r="G53" s="2">
@@ -4693,22 +4714,22 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="B54" s="7">
+      <c r="A54" s="12">
+        <v>0.27622028999999998</v>
+      </c>
+      <c r="B54" s="4">
         <v>0.58215349137232142</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="4">
         <v>0.60122028666420424</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="4">
         <v>0.77515174174630863</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="3">
         <v>0.53097970700000008</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="3">
         <v>0.71349411399999996</v>
       </c>
       <c r="G54" s="2">
@@ -4717,25 +4738,25 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="B55" s="7">
+      <c r="A55" s="13">
+        <v>0.27534701</v>
+      </c>
+      <c r="B55" s="6">
         <v>0.58114430911896875</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>0.60034701295145865</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>0.77512236938360002</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="7">
         <v>0.53223929400000003</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="7">
         <v>0.71240176199999994</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="8">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>

--- a/Confidence_Files/Dispersion_Morph_95%_Confidence.xlsx
+++ b/Confidence_Files/Dispersion_Morph_95%_Confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonysemeraro/Documents/Research/Masters/Data/Data_Processing/Confidence_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9BC147-3C71-DF40-945C-27024604B907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E8E7ED-1DE0-9E4F-B7A6-494B563D6CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17640" xr2:uid="{F582D0B3-7D29-414F-A802-404B8CDD3DF4}"/>
   </bookViews>
@@ -161,6 +161,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -168,12 +174,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3506,18 +3506,18 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="13"/>
       <c r="G3" t="s">
         <v>11</v>
       </c>
@@ -3563,7 +3563,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>0.31540180000000001</v>
       </c>
       <c r="B6" s="4">
@@ -3586,7 +3586,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>0.29005894999999998</v>
       </c>
       <c r="B7" s="4">
@@ -3610,7 +3610,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>0.29022999999999999</v>
       </c>
       <c r="B8" s="4">
@@ -3634,7 +3634,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>0.28548055999999999</v>
       </c>
       <c r="B9" s="4">
@@ -3658,7 +3658,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>0.27866218999999998</v>
       </c>
       <c r="B10" s="4">
@@ -3682,7 +3682,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>0.27499625999999999</v>
       </c>
       <c r="B11" s="4">
@@ -3706,7 +3706,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>0.28871034000000001</v>
       </c>
       <c r="B12" s="4">
@@ -3730,7 +3730,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>0.27513970999999998</v>
       </c>
       <c r="B13" s="4">
@@ -3754,7 +3754,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="9">
         <v>0.27419725</v>
       </c>
       <c r="B14" s="4">
@@ -3778,7 +3778,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="A15" s="9">
         <v>0.27858443999999999</v>
       </c>
       <c r="B15" s="4">
@@ -3802,7 +3802,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <v>0.27595997999999999</v>
       </c>
       <c r="B16" s="5">
@@ -3826,7 +3826,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="9">
         <v>0.27426507</v>
       </c>
       <c r="B17" s="5">
@@ -3850,7 +3850,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="A18" s="9">
         <v>0.27397292000000001</v>
       </c>
       <c r="B18" s="5">
@@ -3874,7 +3874,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>0.28264915000000002</v>
       </c>
       <c r="B19" s="5">
@@ -3898,7 +3898,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>0.27587998000000002</v>
       </c>
       <c r="B20" s="5">
@@ -3922,7 +3922,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>0.27058451</v>
       </c>
       <c r="B21" s="5">
@@ -3946,7 +3946,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <v>0.27131221</v>
       </c>
       <c r="B22" s="5">
@@ -3970,7 +3970,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>0.27408074999999998</v>
       </c>
       <c r="B23" s="5">
@@ -3994,7 +3994,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <v>0.27813415000000002</v>
       </c>
       <c r="B24" s="4">
@@ -4018,7 +4018,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>0.27502555000000001</v>
       </c>
       <c r="B25" s="4">
@@ -4042,7 +4042,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+      <c r="A26" s="9">
         <v>0.27506017999999999</v>
       </c>
       <c r="B26" s="4">
@@ -4066,7 +4066,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="A27" s="9">
         <v>0.27182181</v>
       </c>
       <c r="B27" s="4">
@@ -4090,7 +4090,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+      <c r="A28" s="9">
         <v>0.27510136000000002</v>
       </c>
       <c r="B28" s="4">
@@ -4114,7 +4114,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+      <c r="A29" s="9">
         <v>0.27334542000000001</v>
       </c>
       <c r="B29" s="4">
@@ -4138,7 +4138,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+      <c r="A30" s="9">
         <v>0.27638509999999999</v>
       </c>
       <c r="B30" s="4">
@@ -4162,7 +4162,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
+      <c r="A31" s="9">
         <v>0.27475755000000002</v>
       </c>
       <c r="B31" s="4">
@@ -4186,7 +4186,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+      <c r="A32" s="9">
         <v>0.27504811000000001</v>
       </c>
       <c r="B32" s="4">
@@ -4210,7 +4210,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
+      <c r="A33" s="9">
         <v>0.27338497</v>
       </c>
       <c r="B33" s="4">
@@ -4234,7 +4234,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
+      <c r="A34" s="9">
         <v>0.27545767999999998</v>
       </c>
       <c r="B34" s="4">
@@ -4258,7 +4258,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
+      <c r="A35" s="9">
         <v>0.27376331999999998</v>
       </c>
       <c r="B35" s="4">
@@ -4282,7 +4282,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
+      <c r="A36" s="9">
         <v>0.26997560999999998</v>
       </c>
       <c r="B36" s="4">
@@ -4306,7 +4306,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
+      <c r="A37" s="9">
         <v>0.27424026000000001</v>
       </c>
       <c r="B37" s="4">
@@ -4330,7 +4330,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
+      <c r="A38" s="9">
         <v>0.27549497000000001</v>
       </c>
       <c r="B38" s="4">
@@ -4354,7 +4354,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
+      <c r="A39" s="9">
         <v>0.27568694999999999</v>
       </c>
       <c r="B39" s="4">
@@ -4378,7 +4378,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
+      <c r="A40" s="9">
         <v>0.27581821000000001</v>
       </c>
       <c r="B40" s="4">
@@ -4402,7 +4402,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
+      <c r="A41" s="9">
         <v>0.27510934999999997</v>
       </c>
       <c r="B41" s="4">
@@ -4426,7 +4426,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
+      <c r="A42" s="9">
         <v>0.27412125999999998</v>
       </c>
       <c r="B42" s="4">
@@ -4450,7 +4450,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
+      <c r="A43" s="9">
         <v>0.27516334999999997</v>
       </c>
       <c r="B43" s="4">
@@ -4474,7 +4474,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
+      <c r="A44" s="9">
         <v>0.27526415999999998</v>
       </c>
       <c r="B44" s="4">
@@ -4498,7 +4498,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
+      <c r="A45" s="9">
         <v>0.27444162</v>
       </c>
       <c r="B45" s="4">
@@ -4522,7 +4522,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
+      <c r="A46" s="9">
         <v>0.27544756999999997</v>
       </c>
       <c r="B46" s="4">
@@ -4546,7 +4546,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
+      <c r="A47" s="9">
         <v>0.27345525999999998</v>
       </c>
       <c r="B47" s="4">
@@ -4570,7 +4570,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="12">
+      <c r="A48" s="9">
         <v>0.27548528</v>
       </c>
       <c r="B48" s="4">
@@ -4594,7 +4594,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
+      <c r="A49" s="9">
         <v>0.27484293999999998</v>
       </c>
       <c r="B49" s="4">
@@ -4618,7 +4618,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="12">
+      <c r="A50" s="9">
         <v>0.27491368999999999</v>
       </c>
       <c r="B50" s="4">
@@ -4642,7 +4642,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="12">
+      <c r="A51" s="9">
         <v>0.27293058999999997</v>
       </c>
       <c r="B51" s="4">
@@ -4666,7 +4666,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="12">
+      <c r="A52" s="9">
         <v>0.27305024999999999</v>
       </c>
       <c r="B52" s="4">
@@ -4690,7 +4690,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="12">
+      <c r="A53" s="9">
         <v>0.27317996999999999</v>
       </c>
       <c r="B53" s="4">
@@ -4714,7 +4714,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="12">
+      <c r="A54" s="9">
         <v>0.27622028999999998</v>
       </c>
       <c r="B54" s="4">
@@ -4738,7 +4738,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="13">
+      <c r="A55" s="10">
         <v>0.27534701</v>
       </c>
       <c r="B55" s="6">
